--- a/exercise03/result.xlsx
+++ b/exercise03/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>01_mmul_c_static/int</t>
   </si>
@@ -81,12 +81,21 @@
   </si>
   <si>
     <t>2/yes</t>
+  </si>
+  <si>
+    <t>1/no</t>
+  </si>
+  <si>
+    <t>16/yes</t>
+  </si>
+  <si>
+    <t>8/yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -489,13 +498,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -506,13 +515,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -523,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -540,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -557,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -574,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -591,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -608,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>

--- a/exercise03/result.xlsx
+++ b/exercise03/result.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -555,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -572,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
